--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MINNESOTA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MINNESOTA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1206"/>
+  <dimension ref="A1:D1200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C8">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C34">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C69">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C72">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C76">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C85">
@@ -2011,7 +2011,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C125">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C137">
@@ -2232,7 +2232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2276,7 +2276,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2471,7 +2471,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C182">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C199">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C201">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C202">
@@ -3110,12 +3110,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C208">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C213">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C218">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C223">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C226">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C231">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C236">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C245">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C260">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C269">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C274">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C277">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C289">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C295">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C303">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C309">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C311">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C312">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C313">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C315">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C320">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C327">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C332">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C335">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C340">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C345">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C346">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C350">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C361">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C366">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C377">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C386">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C389">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C397">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C402">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C405">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C407">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C416">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C420">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C422">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C428">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C430">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C436">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C438">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C443">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C445">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C448">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C453">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C456">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C462">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C465">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C469">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C474">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C477">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C479">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C481">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C483">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C484">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C486">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C488">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C490">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C496">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C500">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8085,7 +8085,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C588">
@@ -8150,7 +8150,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C593">
@@ -8163,7 +8163,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C594">
@@ -8254,7 +8254,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C601">
@@ -8337,7 +8337,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C607">
@@ -8654,7 +8654,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C631">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C634">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C637">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C644">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C653">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C662">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C665">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C675">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C722">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C760">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C768">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C771">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C776">
@@ -10770,7 +10770,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C793">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C795">
@@ -10926,7 +10926,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C805">
@@ -11017,7 +11017,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C812">
@@ -11160,7 +11160,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C823">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C824">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C827">
@@ -11225,7 +11225,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C828">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C839">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C840">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C845">
@@ -11576,7 +11576,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C855">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C858">
@@ -11628,7 +11628,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C859">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C862">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C867">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C868">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C871">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C872">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C876">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C889">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C901">
@@ -12231,7 +12231,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C905">
@@ -12244,7 +12244,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C906">
@@ -12283,7 +12283,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C909">
@@ -12322,7 +12322,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C912">
@@ -12514,7 +12514,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C926">
@@ -12592,7 +12592,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C932">
@@ -12631,7 +12631,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C935">
@@ -12696,7 +12696,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C940">
@@ -12774,7 +12774,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C946">
@@ -12787,7 +12787,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C947">
@@ -12800,7 +12800,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C948">
@@ -13135,7 +13135,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C973">
@@ -13574,7 +13574,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1006">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1013">
@@ -13722,7 +13722,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1017">
@@ -13774,7 +13774,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1021">
@@ -13800,7 +13800,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1023">
@@ -13813,7 +13813,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1024">
@@ -13826,7 +13826,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1025">
@@ -13839,7 +13839,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1026">
@@ -13930,7 +13930,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -13987,7 +13987,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1037">
@@ -14026,7 +14026,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1040">
@@ -14117,7 +14117,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1047">
@@ -14169,7 +14169,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1051">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1053">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1061">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1078">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1079">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1083">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1090">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1095">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1096">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1100">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1105">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1114">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1117">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1127">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1130">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1151">
@@ -15661,7 +15661,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1165">
@@ -15687,7 +15687,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1167">
@@ -15713,7 +15713,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1169">
@@ -15856,7 +15856,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1180">
@@ -15882,7 +15882,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1182">
@@ -15895,7 +15895,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1183">
@@ -15908,7 +15908,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1184">
@@ -15999,7 +15999,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1191">
@@ -16025,7 +16025,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1193">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1200">
@@ -16124,41 +16124,6 @@
       </c>
       <c r="D1200">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
